--- a/biology/Médecine/Double_menton/Double_menton.xlsx
+++ b/biology/Médecine/Double_menton/Double_menton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un double menton est le résultat d'une accumulation de masse graisseuse sous le menton, formant des rides plus ou moins visibles. Le double menton s'observe souvent chez les personnes âgées, les bébés et les personnes en surpoids. Au niveau anatomique, il se caractérise par un affaiblissement de l'angle cervico-mandibulaire[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un double menton est le résultat d'une accumulation de masse graisseuse sous le menton, formant des rides plus ou moins visibles. Le double menton s'observe souvent chez les personnes âgées, les bébés et les personnes en surpoids. Au niveau anatomique, il se caractérise par un affaiblissement de l'angle cervico-mandibulaire.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cou de dindon</t>
         </is>
